--- a/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/parameters-SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10.xlsx
+++ b/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/parameters-SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">calibration</t>
   </si>
@@ -32,18 +32,6 @@
     <t xml:space="preserve">upper_bound</t>
   </si>
   <si>
-    <t xml:space="preserve">Lambda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">beta2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mu</t>
-  </si>
-  <si>
     <t xml:space="preserve">gamma1</t>
   </si>
   <si>
@@ -51,6 +39,9 @@
   </si>
   <si>
     <t xml:space="preserve">nu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rho</t>
   </si>
   <si>
     <t xml:space="preserve">phi1</t>
@@ -416,16 +407,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1.62824087508457e+305</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.60604972881589e+305</v>
+        <v>0.01</v>
       </c>
       <c r="E2" t="n">
-        <v>1.44246841734914e+305</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.7252487477451e+305</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
@@ -436,16 +427,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.39</v>
+        <v>0.09</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37</v>
+        <v>0.09</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.49</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -456,16 +447,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -476,16 +467,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6">
@@ -496,16 +487,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="E6" t="n">
         <v>0.19</v>
       </c>
       <c r="F6" t="n">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7">
@@ -516,75 +507,15 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/parameters-SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10.xlsx
+++ b/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/parameters-SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">calibration</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t xml:space="preserve">upper_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta2</t>
   </si>
   <si>
     <t xml:space="preserve">gamma1</t>
@@ -407,16 +413,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.97</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="3">
@@ -427,16 +433,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09</v>
+        <v>0.51</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09</v>
+        <v>0.58</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="4">
@@ -447,16 +453,16 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="5">
@@ -467,16 +473,16 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="6">
@@ -487,16 +493,16 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -507,15 +513,55 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F7" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>0</v>
       </c>
     </row>
